--- a/myapp/files/9_MethodComparePercent/Scenario 303.xlsx
+++ b/myapp/files/9_MethodComparePercent/Scenario 303.xlsx
@@ -581,10 +581,10 @@
         <v>12</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>5472</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>0.974071054496</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -593,10 +593,10 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J2" t="n">
-        <v>0</v>
+        <v>0.363636363636364</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -619,10 +619,10 @@
         <v>14</v>
       </c>
       <c r="E3" t="n">
-        <v>2035</v>
+        <v>8035</v>
       </c>
       <c r="F3" t="n">
-        <v>2.70518171908649</v>
+        <v>1.43031084116874</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -631,10 +631,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" t="n">
-        <v>2.04081632653061</v>
+        <v>1.09090909090909</v>
       </c>
       <c r="K3" t="n">
         <v>1</v>
@@ -657,10 +657,10 @@
         <v>16</v>
       </c>
       <c r="E4" t="n">
-        <v>1625</v>
+        <v>12319</v>
       </c>
       <c r="F4" t="n">
-        <v>2.16015739239093</v>
+        <v>2.1929059430439</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
@@ -669,10 +669,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I4" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J4" t="n">
-        <v>4.08163265306122</v>
+        <v>2.90909090909091</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -695,10 +695,10 @@
         <v>18</v>
       </c>
       <c r="E5" t="n">
-        <v>3365</v>
+        <v>16008</v>
       </c>
       <c r="F5" t="n">
-        <v>4.47318746178183</v>
+        <v>2.84958505854751</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -707,10 +707,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I5" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="J5" t="n">
-        <v>4.08163265306122</v>
+        <v>3.27272727272727</v>
       </c>
       <c r="K5" t="n">
         <v>5</v>
@@ -733,10 +733,10 @@
         <v>20</v>
       </c>
       <c r="E6" t="n">
-        <v>3694</v>
+        <v>7214</v>
       </c>
       <c r="F6" t="n">
-        <v>4.91053625076436</v>
+        <v>1.28416458098212</v>
       </c>
       <c r="G6" t="n">
         <v>1</v>
@@ -745,10 +745,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I6" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="J6" t="n">
-        <v>6.12244897959184</v>
+        <v>2.54545454545455</v>
       </c>
       <c r="K6" t="n">
         <v>1</v>
@@ -771,10 +771,10 @@
         <v>12</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>6202</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>1.10401839911992</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -783,10 +783,10 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -809,10 +809,10 @@
         <v>14</v>
       </c>
       <c r="E8" t="n">
-        <v>1247</v>
+        <v>10555</v>
       </c>
       <c r="F8" t="n">
-        <v>1.65767154973015</v>
+        <v>1.87889619521295</v>
       </c>
       <c r="G8" t="n">
         <v>3</v>
@@ -821,10 +821,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I8" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="J8" t="n">
-        <v>2.04081632653061</v>
+        <v>1.81818181818182</v>
       </c>
       <c r="K8" t="n">
         <v>1</v>
@@ -847,10 +847,10 @@
         <v>16</v>
       </c>
       <c r="E9" t="n">
-        <v>2349</v>
+        <v>24039</v>
       </c>
       <c r="F9" t="n">
-        <v>3.12259059367772</v>
+        <v>4.27918385947174</v>
       </c>
       <c r="G9" t="n">
         <v>2</v>
@@ -859,10 +859,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I9" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="J9" t="n">
-        <v>2.04081632653061</v>
+        <v>4.36363636363636</v>
       </c>
       <c r="K9" t="n">
         <v>4</v>
@@ -885,10 +885,10 @@
         <v>18</v>
       </c>
       <c r="E10" t="n">
-        <v>11387</v>
+        <v>36837</v>
       </c>
       <c r="F10" t="n">
-        <v>15.1370536782495</v>
+        <v>6.55735662179626</v>
       </c>
       <c r="G10" t="n">
         <v>6</v>
@@ -897,10 +897,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I10" t="n">
-        <v>5</v>
+        <v>20</v>
       </c>
       <c r="J10" t="n">
-        <v>10.2040816326531</v>
+        <v>7.27272727272727</v>
       </c>
       <c r="K10" t="n">
         <v>7</v>
@@ -923,10 +923,10 @@
         <v>20</v>
       </c>
       <c r="E11" t="n">
-        <v>5309</v>
+        <v>25073</v>
       </c>
       <c r="F11" t="n">
-        <v>7.05740036689443</v>
+        <v>4.46324626267877</v>
       </c>
       <c r="G11" t="n">
         <v>3</v>
@@ -935,10 +935,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I11" t="n">
-        <v>4</v>
+        <v>18</v>
       </c>
       <c r="J11" t="n">
-        <v>8.16326530612245</v>
+        <v>6.54545454545455</v>
       </c>
       <c r="K11" t="n">
         <v>3</v>
@@ -961,10 +961,10 @@
         <v>12</v>
       </c>
       <c r="E12" t="n">
-        <v>1752</v>
+        <v>8024</v>
       </c>
       <c r="F12" t="n">
-        <v>2.32898200090394</v>
+        <v>1.42835273049633</v>
       </c>
       <c r="G12" t="n">
         <v>0</v>
@@ -973,10 +973,10 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J12" t="n">
-        <v>4.08163265306122</v>
+        <v>1.45454545454545</v>
       </c>
       <c r="K12" t="n">
         <v>0</v>
@@ -999,10 +999,10 @@
         <v>14</v>
       </c>
       <c r="E13" t="n">
-        <v>5994</v>
+        <v>23382</v>
       </c>
       <c r="F13" t="n">
-        <v>7.96798979076383</v>
+        <v>4.16223124931021</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1011,10 +1011,10 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="J13" t="n">
-        <v>4.08163265306122</v>
+        <v>2.90909090909091</v>
       </c>
       <c r="K13" t="n">
         <v>1</v>
@@ -1037,10 +1037,10 @@
         <v>16</v>
       </c>
       <c r="E14" t="n">
-        <v>3830</v>
+        <v>43264</v>
       </c>
       <c r="F14" t="n">
-        <v>5.09132480791216</v>
+        <v>7.70142728467013</v>
       </c>
       <c r="G14" t="n">
         <v>6</v>
@@ -1049,10 +1049,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I14" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J14" t="n">
-        <v>6.12244897959184</v>
+        <v>6.18181818181818</v>
       </c>
       <c r="K14" t="n">
         <v>5</v>
@@ -1075,10 +1075,10 @@
         <v>18</v>
       </c>
       <c r="E15" t="n">
-        <v>3612</v>
+        <v>48094</v>
       </c>
       <c r="F15" t="n">
-        <v>4.80153138542525</v>
+        <v>8.56121587992153</v>
       </c>
       <c r="G15" t="n">
         <v>12</v>
@@ -1087,10 +1087,10 @@
         <v>16.4383561643836</v>
       </c>
       <c r="I15" t="n">
-        <v>2</v>
+        <v>20</v>
       </c>
       <c r="J15" t="n">
-        <v>4.08163265306122</v>
+        <v>7.27272727272727</v>
       </c>
       <c r="K15" t="n">
         <v>6</v>
@@ -1113,10 +1113,10 @@
         <v>20</v>
       </c>
       <c r="E16" t="n">
-        <v>3436</v>
+        <v>49727</v>
       </c>
       <c r="F16" t="n">
-        <v>4.56756972323399</v>
+        <v>8.85190630974463</v>
       </c>
       <c r="G16" t="n">
         <v>10</v>
@@ -1125,10 +1125,10 @@
         <v>13.6986301369863</v>
       </c>
       <c r="I16" t="n">
-        <v>3</v>
+        <v>21</v>
       </c>
       <c r="J16" t="n">
-        <v>6.12244897959184</v>
+        <v>7.63636363636364</v>
       </c>
       <c r="K16" t="n">
         <v>8</v>
@@ -1151,10 +1151,10 @@
         <v>12</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>5124</v>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>0.912123553223228</v>
       </c>
       <c r="G17" t="n">
         <v>0</v>
@@ -1163,10 +1163,10 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="J17" t="n">
-        <v>0</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="K17" t="n">
         <v>0</v>
@@ -1189,10 +1189,10 @@
         <v>14</v>
       </c>
       <c r="E18" t="n">
-        <v>0</v>
+        <v>10337</v>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1.84009000188691</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1201,10 +1201,10 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>2.18181818181818</v>
       </c>
       <c r="K18" t="n">
         <v>0</v>
@@ -1227,10 +1227,10 @@
         <v>16</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>26989</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>4.80431353980127</v>
       </c>
       <c r="G19" t="n">
         <v>5</v>
@@ -1239,10 +1239,10 @@
         <v>6.84931506849315</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>5.09090909090909</v>
       </c>
       <c r="K19" t="n">
         <v>4</v>
@@ -1265,10 +1265,10 @@
         <v>18</v>
       </c>
       <c r="E20" t="n">
-        <v>2180</v>
+        <v>38982</v>
       </c>
       <c r="F20" t="n">
-        <v>2.89793422486906</v>
+        <v>6.93918820291723</v>
       </c>
       <c r="G20" t="n">
         <v>10</v>
@@ -1277,10 +1277,10 @@
         <v>13.6986301369863</v>
       </c>
       <c r="I20" t="n">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="J20" t="n">
-        <v>4.08163265306122</v>
+        <v>9.45454545454546</v>
       </c>
       <c r="K20" t="n">
         <v>6</v>
@@ -1303,10 +1303,10 @@
         <v>20</v>
       </c>
       <c r="E21" t="n">
-        <v>532</v>
+        <v>39006</v>
       </c>
       <c r="F21" t="n">
-        <v>0.707202297078138</v>
+        <v>6.94346044438432</v>
       </c>
       <c r="G21" t="n">
         <v>3</v>
@@ -1315,10 +1315,10 @@
         <v>4.10958904109589</v>
       </c>
       <c r="I21" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="J21" t="n">
-        <v>2.04081632653061</v>
+        <v>8</v>
       </c>
       <c r="K21" t="n">
         <v>3</v>
@@ -1341,10 +1341,10 @@
         <v>12</v>
       </c>
       <c r="E22" t="n">
-        <v>1771</v>
+        <v>4903</v>
       </c>
       <c r="F22" t="n">
-        <v>2.35423922579959</v>
+        <v>0.872783329713795</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1353,10 +1353,10 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="J22" t="n">
-        <v>2.04081632653061</v>
+        <v>0.727272727272727</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
@@ -1379,10 +1379,10 @@
         <v>14</v>
       </c>
       <c r="E23" t="n">
-        <v>3601</v>
+        <v>8707</v>
       </c>
       <c r="F23" t="n">
-        <v>4.7869087815383</v>
+        <v>1.5499336022472</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1391,10 +1391,10 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="J23" t="n">
-        <v>4.08163265306122</v>
+        <v>1.45454545454545</v>
       </c>
       <c r="K23" t="n">
         <v>1</v>
@@ -1417,10 +1417,10 @@
         <v>16</v>
       </c>
       <c r="E24" t="n">
-        <v>2787</v>
+        <v>20206</v>
       </c>
       <c r="F24" t="n">
-        <v>3.7048360939037</v>
+        <v>3.5968712951656</v>
       </c>
       <c r="G24" t="n">
         <v>1</v>
@@ -1429,10 +1429,10 @@
         <v>1.36986301369863</v>
       </c>
       <c r="I24" t="n">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="J24" t="n">
-        <v>4.08163265306122</v>
+        <v>2.54545454545455</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -1455,10 +1455,10 @@
         <v>18</v>
       </c>
       <c r="E25" t="n">
-        <v>3406</v>
+        <v>33877</v>
       </c>
       <c r="F25" t="n">
-        <v>4.52768989445139</v>
+        <v>6.03044684085545</v>
       </c>
       <c r="G25" t="n">
         <v>2</v>
@@ -1467,10 +1467,10 @@
         <v>2.73972602739726</v>
       </c>
       <c r="I25" t="n">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="J25" t="n">
-        <v>6.12244897959184</v>
+        <v>6.18181818181818</v>
       </c>
       <c r="K25" t="n">
         <v>3</v>
@@ -1493,10 +1493,10 @@
         <v>20</v>
       </c>
       <c r="E26" t="n">
-        <v>11314</v>
+        <v>49390</v>
       </c>
       <c r="F26" t="n">
-        <v>15.0400127615452</v>
+        <v>8.79191691914427</v>
       </c>
       <c r="G26" t="n">
         <v>6</v>
@@ -1505,10 +1505,10 @@
         <v>8.21917808219178</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="J26" t="n">
-        <v>14.2857142857143</v>
+        <v>7.27272727272727</v>
       </c>
       <c r="K26" t="n">
         <v>12</v>
